--- a/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.37</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.37</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -734,25 +824,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.77</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.49</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.07</v>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>4.84</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1938,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1954,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.07</v>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1938,14 +2003,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.84</v>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1954,14 +2041,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +2079,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.07</v>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2315,14 +2402,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.84</v>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2331,14 +2440,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13</v>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2347,13 +2478,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4.07</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>4.84</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +1772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1887,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +2700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2607,7 +2946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
+++ b/数据整理/stocks/A股/上证主板/600704-物产中大.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4.07</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4.84</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.13</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -616,7 +633,423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1412,7 +1845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1772,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1904,7 +2337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2226,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2700,7 +3133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2944,250 +3377,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009658</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1010</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0359</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>